--- a/BackTest/2020-01-15 BackTest MIX.xlsx
+++ b/BackTest/2020-01-15 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1609,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3997,6 +4103,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4067,6 +4175,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4106,6 +4215,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4149,6 +4259,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4192,6 +4303,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4231,6 +4343,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4272,6 +4385,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest MIX.xlsx
+++ b/BackTest/2020-01-15 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="C2" t="n">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="D2" t="n">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="F2" t="n">
-        <v>181.1</v>
+        <v>679.4688</v>
       </c>
       <c r="G2" t="n">
-        <v>-8012649.524900003</v>
+        <v>-6684532.7506</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="C3" t="n">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="D3" t="n">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="E3" t="n">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="F3" t="n">
-        <v>199.6777</v>
+        <v>95020.2944</v>
       </c>
       <c r="G3" t="n">
-        <v>-8012649.524900003</v>
+        <v>-6684532.7506</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.05</v>
+        <v>3.076</v>
       </c>
       <c r="C4" t="n">
-        <v>3.05</v>
+        <v>3.076</v>
       </c>
       <c r="D4" t="n">
-        <v>3.05</v>
+        <v>3.076</v>
       </c>
       <c r="E4" t="n">
-        <v>3.05</v>
+        <v>3.076</v>
       </c>
       <c r="F4" t="n">
-        <v>390.2759</v>
+        <v>101188.1526</v>
       </c>
       <c r="G4" t="n">
-        <v>-8013039.800800003</v>
+        <v>-6583344.598</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.044</v>
+        <v>3.08</v>
       </c>
       <c r="C5" t="n">
-        <v>3.043</v>
+        <v>3.08</v>
       </c>
       <c r="D5" t="n">
-        <v>3.044</v>
+        <v>3.08</v>
       </c>
       <c r="E5" t="n">
-        <v>3.043</v>
+        <v>3.08</v>
       </c>
       <c r="F5" t="n">
-        <v>21535.0221</v>
+        <v>8803.3099</v>
       </c>
       <c r="G5" t="n">
-        <v>-8034574.822900003</v>
+        <v>-6574541.2881</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.044</v>
+        <v>3.08</v>
       </c>
       <c r="C6" t="n">
-        <v>3.044</v>
+        <v>3.04</v>
       </c>
       <c r="D6" t="n">
-        <v>3.044</v>
+        <v>3.08</v>
       </c>
       <c r="E6" t="n">
-        <v>3.044</v>
+        <v>3.04</v>
       </c>
       <c r="F6" t="n">
-        <v>1206.7471</v>
+        <v>90281.9939</v>
       </c>
       <c r="G6" t="n">
-        <v>-8033368.075800003</v>
+        <v>-6664823.282000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.044</v>
+        <v>3.07</v>
       </c>
       <c r="C7" t="n">
-        <v>3.044</v>
+        <v>3.083</v>
       </c>
       <c r="D7" t="n">
-        <v>3.044</v>
+        <v>3.083</v>
       </c>
       <c r="E7" t="n">
-        <v>3.044</v>
+        <v>3.07</v>
       </c>
       <c r="F7" t="n">
-        <v>8790.375400000001</v>
+        <v>189861.5101</v>
       </c>
       <c r="G7" t="n">
-        <v>-8033368.075800003</v>
+        <v>-6474961.771900001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.08</v>
+        <v>3.083</v>
       </c>
       <c r="C8" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="D8" t="n">
-        <v>3.08</v>
+        <v>3.083</v>
       </c>
       <c r="E8" t="n">
-        <v>3.08</v>
+        <v>3.018</v>
       </c>
       <c r="F8" t="n">
-        <v>200</v>
+        <v>747736.2511</v>
       </c>
       <c r="G8" t="n">
-        <v>-8033168.075800003</v>
+        <v>-7222698.023000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="C9" t="n">
-        <v>3.043</v>
+        <v>3.09</v>
       </c>
       <c r="D9" t="n">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="E9" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="F9" t="n">
-        <v>287875.2774</v>
+        <v>1381.1433</v>
       </c>
       <c r="G9" t="n">
-        <v>-8321043.353200003</v>
+        <v>-7221316.879700001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.043</v>
+        <v>3.09</v>
       </c>
       <c r="C10" t="n">
-        <v>3.043</v>
+        <v>3.031</v>
       </c>
       <c r="D10" t="n">
-        <v>3.043</v>
+        <v>3.09</v>
       </c>
       <c r="E10" t="n">
-        <v>3.043</v>
+        <v>3.031</v>
       </c>
       <c r="F10" t="n">
-        <v>41917.0493</v>
+        <v>370</v>
       </c>
       <c r="G10" t="n">
-        <v>-8321043.353200003</v>
+        <v>-7221686.879700001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.043</v>
+        <v>3.033</v>
       </c>
       <c r="C11" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="D11" t="n">
-        <v>3.043</v>
+        <v>3.033</v>
       </c>
       <c r="E11" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="F11" t="n">
-        <v>20213.2761</v>
+        <v>129428.8457</v>
       </c>
       <c r="G11" t="n">
-        <v>-8321043.353200003</v>
+        <v>-7351115.725400002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="C12" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="D12" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="E12" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="F12" t="n">
-        <v>6023.8293</v>
+        <v>50351.9419</v>
       </c>
       <c r="G12" t="n">
-        <v>-8321043.353200003</v>
+        <v>-7351115.725400002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.042</v>
+        <v>3.03</v>
       </c>
       <c r="C13" t="n">
-        <v>3.042</v>
+        <v>3.03</v>
       </c>
       <c r="D13" t="n">
-        <v>3.042</v>
+        <v>3.03</v>
       </c>
       <c r="E13" t="n">
-        <v>3.042</v>
+        <v>3.03</v>
       </c>
       <c r="F13" t="n">
-        <v>283004.4894</v>
+        <v>330879.6447</v>
       </c>
       <c r="G13" t="n">
-        <v>-8604047.842600003</v>
+        <v>-7351115.725400002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.042</v>
+        <v>3.03</v>
       </c>
       <c r="C14" t="n">
-        <v>3.042</v>
+        <v>3.03</v>
       </c>
       <c r="D14" t="n">
-        <v>3.042</v>
+        <v>3.03</v>
       </c>
       <c r="E14" t="n">
-        <v>3.042</v>
+        <v>3.03</v>
       </c>
       <c r="F14" t="n">
-        <v>419745.7228</v>
+        <v>370754.3737</v>
       </c>
       <c r="G14" t="n">
-        <v>-8604047.842600003</v>
+        <v>-7351115.725400002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="C15" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="D15" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="E15" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="n">
-        <v>-8603847.842600003</v>
+        <v>-7347115.725400002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.042</v>
+        <v>3.09</v>
       </c>
       <c r="C16" t="n">
-        <v>3.041</v>
+        <v>3.09</v>
       </c>
       <c r="D16" t="n">
-        <v>3.042</v>
+        <v>3.09</v>
       </c>
       <c r="E16" t="n">
-        <v>3.041</v>
+        <v>3.09</v>
       </c>
       <c r="F16" t="n">
-        <v>88391.3803</v>
+        <v>200</v>
       </c>
       <c r="G16" t="n">
-        <v>-8692239.222900003</v>
+        <v>-7346915.725400002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.069</v>
+        <v>3.033</v>
       </c>
       <c r="C17" t="n">
-        <v>3.069</v>
+        <v>3.033</v>
       </c>
       <c r="D17" t="n">
-        <v>3.069</v>
+        <v>3.033</v>
       </c>
       <c r="E17" t="n">
-        <v>3.069</v>
+        <v>3.033</v>
       </c>
       <c r="F17" t="n">
-        <v>181.818</v>
+        <v>5085.0219</v>
       </c>
       <c r="G17" t="n">
-        <v>-8692057.404900003</v>
+        <v>-7352000.747300002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.041</v>
+        <v>3.09</v>
       </c>
       <c r="C18" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="D18" t="n">
-        <v>3.041</v>
+        <v>3.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="F18" t="n">
-        <v>1143847.5565</v>
+        <v>9014.17</v>
       </c>
       <c r="G18" t="n">
-        <v>-9835904.961400002</v>
+        <v>-7342986.577300002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.04</v>
+        <v>3.053</v>
       </c>
       <c r="C19" t="n">
-        <v>3.04</v>
+        <v>3.053</v>
       </c>
       <c r="D19" t="n">
-        <v>3.04</v>
+        <v>3.053</v>
       </c>
       <c r="E19" t="n">
-        <v>3.04</v>
+        <v>3.053</v>
       </c>
       <c r="F19" t="n">
-        <v>8500.91</v>
+        <v>320000</v>
       </c>
       <c r="G19" t="n">
-        <v>-9835904.961400002</v>
+        <v>-7662986.577300002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.04</v>
+        <v>3.053</v>
       </c>
       <c r="C20" t="n">
-        <v>3.04</v>
+        <v>3.052</v>
       </c>
       <c r="D20" t="n">
-        <v>3.04</v>
+        <v>3.053</v>
       </c>
       <c r="E20" t="n">
-        <v>3.04</v>
+        <v>3.052</v>
       </c>
       <c r="F20" t="n">
-        <v>60000</v>
+        <v>130295.8294</v>
       </c>
       <c r="G20" t="n">
-        <v>-9835904.961400002</v>
+        <v>-7793282.406700002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.04</v>
+        <v>3.088</v>
       </c>
       <c r="C21" t="n">
-        <v>3.04</v>
+        <v>3.088</v>
       </c>
       <c r="D21" t="n">
-        <v>3.04</v>
+        <v>3.088</v>
       </c>
       <c r="E21" t="n">
-        <v>3.04</v>
+        <v>3.088</v>
       </c>
       <c r="F21" t="n">
-        <v>689856.347</v>
+        <v>136992.0583</v>
       </c>
       <c r="G21" t="n">
-        <v>-9835904.961400002</v>
+        <v>-7656290.348400002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.069</v>
+        <v>3.052</v>
       </c>
       <c r="C22" t="n">
-        <v>3.069</v>
+        <v>3.052</v>
       </c>
       <c r="D22" t="n">
-        <v>3.069</v>
+        <v>3.052</v>
       </c>
       <c r="E22" t="n">
-        <v>3.069</v>
+        <v>3.052</v>
       </c>
       <c r="F22" t="n">
-        <v>19621.8616</v>
+        <v>227941.7723</v>
       </c>
       <c r="G22" t="n">
-        <v>-9816283.099800002</v>
+        <v>-7884232.120700003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.07</v>
+        <v>3.052</v>
       </c>
       <c r="C23" t="n">
-        <v>3.07</v>
+        <v>3.052</v>
       </c>
       <c r="D23" t="n">
-        <v>3.07</v>
+        <v>3.052</v>
       </c>
       <c r="E23" t="n">
-        <v>3.07</v>
+        <v>3.052</v>
       </c>
       <c r="F23" t="n">
-        <v>7203.7765</v>
+        <v>50000</v>
       </c>
       <c r="G23" t="n">
-        <v>-9809079.323300002</v>
+        <v>-7884232.120700003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.079</v>
+        <v>3.052</v>
       </c>
       <c r="C24" t="n">
-        <v>3.079</v>
+        <v>3.052</v>
       </c>
       <c r="D24" t="n">
-        <v>3.079</v>
+        <v>3.052</v>
       </c>
       <c r="E24" t="n">
-        <v>3.079</v>
+        <v>3.052</v>
       </c>
       <c r="F24" t="n">
-        <v>459.6465</v>
+        <v>436831.2274</v>
       </c>
       <c r="G24" t="n">
-        <v>-9808619.676800001</v>
+        <v>-7884232.120700003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.07</v>
+        <v>3.052</v>
       </c>
       <c r="C25" t="n">
-        <v>3.07</v>
+        <v>3.052</v>
       </c>
       <c r="D25" t="n">
-        <v>3.07</v>
+        <v>3.052</v>
       </c>
       <c r="E25" t="n">
-        <v>3.07</v>
+        <v>3.052</v>
       </c>
       <c r="F25" t="n">
-        <v>12051.5908</v>
+        <v>13000</v>
       </c>
       <c r="G25" t="n">
-        <v>-9820671.267600002</v>
+        <v>-7884232.120700003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="C26" t="n">
-        <v>3.07</v>
+        <v>3.042</v>
       </c>
       <c r="D26" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="E26" t="n">
-        <v>3.07</v>
+        <v>3.042</v>
       </c>
       <c r="F26" t="n">
-        <v>348112.5906</v>
+        <v>275282.5165</v>
       </c>
       <c r="G26" t="n">
-        <v>-9820671.267600002</v>
+        <v>-8159514.637200003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.079</v>
+        <v>3.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="D27" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="E27" t="n">
-        <v>3.079</v>
+        <v>3.05</v>
       </c>
       <c r="F27" t="n">
-        <v>6838.691</v>
+        <v>158502.2123</v>
       </c>
       <c r="G27" t="n">
-        <v>-9813832.576600002</v>
+        <v>-8001012.424900003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.079</v>
+        <v>3.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3.079</v>
+        <v>3.05</v>
       </c>
       <c r="D28" t="n">
-        <v>3.079</v>
+        <v>3.05</v>
       </c>
       <c r="E28" t="n">
-        <v>3.079</v>
+        <v>3.05</v>
       </c>
       <c r="F28" t="n">
-        <v>2965.5378</v>
+        <v>200000</v>
       </c>
       <c r="G28" t="n">
-        <v>-9816798.114400001</v>
+        <v>-8001012.424900003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,7 +1410,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="C29" t="n">
         <v>3.08</v>
@@ -1419,19 +1419,19 @@
         <v>3.08</v>
       </c>
       <c r="E29" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="F29" t="n">
-        <v>2693.8946</v>
+        <v>181.8</v>
       </c>
       <c r="G29" t="n">
-        <v>-9814104.219800001</v>
+        <v>-8000830.624900003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="C30" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="D30" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="E30" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="F30" t="n">
-        <v>3294.0586</v>
+        <v>12000</v>
       </c>
       <c r="G30" t="n">
-        <v>-9814104.219800001</v>
+        <v>-8012830.624900003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1494,16 +1494,16 @@
         <v>3.08</v>
       </c>
       <c r="F31" t="n">
-        <v>12899.1232</v>
+        <v>181.1</v>
       </c>
       <c r="G31" t="n">
-        <v>-9814104.219800001</v>
+        <v>-8012649.524900003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.081</v>
+        <v>3.08</v>
       </c>
       <c r="C32" t="n">
-        <v>3.081</v>
+        <v>3.08</v>
       </c>
       <c r="D32" t="n">
-        <v>3.081</v>
+        <v>3.08</v>
       </c>
       <c r="E32" t="n">
-        <v>3.081</v>
+        <v>3.08</v>
       </c>
       <c r="F32" t="n">
-        <v>803.3178</v>
+        <v>199.6777</v>
       </c>
       <c r="G32" t="n">
-        <v>-9813300.902000001</v>
+        <v>-8012649.524900003</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.081</v>
+        <v>3.05</v>
       </c>
       <c r="C33" t="n">
-        <v>3.088</v>
+        <v>3.05</v>
       </c>
       <c r="D33" t="n">
-        <v>3.088</v>
+        <v>3.05</v>
       </c>
       <c r="E33" t="n">
-        <v>3.081</v>
+        <v>3.05</v>
       </c>
       <c r="F33" t="n">
-        <v>700</v>
+        <v>390.2759</v>
       </c>
       <c r="G33" t="n">
-        <v>-9812600.902000001</v>
+        <v>-8013039.800800003</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.086</v>
+        <v>3.044</v>
       </c>
       <c r="C34" t="n">
-        <v>3.086</v>
+        <v>3.043</v>
       </c>
       <c r="D34" t="n">
-        <v>3.086</v>
+        <v>3.044</v>
       </c>
       <c r="E34" t="n">
-        <v>3.086</v>
+        <v>3.043</v>
       </c>
       <c r="F34" t="n">
-        <v>4375.7282</v>
+        <v>21535.0221</v>
       </c>
       <c r="G34" t="n">
-        <v>-9816976.6302</v>
+        <v>-8034574.822900003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.086</v>
+        <v>3.044</v>
       </c>
       <c r="C35" t="n">
-        <v>3.06</v>
+        <v>3.044</v>
       </c>
       <c r="D35" t="n">
-        <v>3.086</v>
+        <v>3.044</v>
       </c>
       <c r="E35" t="n">
-        <v>3.06</v>
+        <v>3.044</v>
       </c>
       <c r="F35" t="n">
-        <v>60000.004</v>
+        <v>1206.7471</v>
       </c>
       <c r="G35" t="n">
-        <v>-9876976.634200001</v>
+        <v>-8033368.075800003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.06</v>
+        <v>3.044</v>
       </c>
       <c r="C36" t="n">
-        <v>3.06</v>
+        <v>3.044</v>
       </c>
       <c r="D36" t="n">
-        <v>3.06</v>
+        <v>3.044</v>
       </c>
       <c r="E36" t="n">
-        <v>3.06</v>
+        <v>3.044</v>
       </c>
       <c r="F36" t="n">
-        <v>3487.7454</v>
+        <v>8790.375400000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-9876976.634200001</v>
+        <v>-8033368.075800003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.054</v>
+        <v>3.08</v>
       </c>
       <c r="C37" t="n">
-        <v>3.054</v>
+        <v>3.08</v>
       </c>
       <c r="D37" t="n">
-        <v>3.054</v>
+        <v>3.08</v>
       </c>
       <c r="E37" t="n">
-        <v>3.054</v>
+        <v>3.08</v>
       </c>
       <c r="F37" t="n">
-        <v>51198.0299</v>
+        <v>200</v>
       </c>
       <c r="G37" t="n">
-        <v>-9928174.664100001</v>
+        <v>-8033168.075800003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.054</v>
+        <v>3.05</v>
       </c>
       <c r="C38" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="D38" t="n">
-        <v>3.054</v>
+        <v>3.05</v>
       </c>
       <c r="E38" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="F38" t="n">
-        <v>1157.0431</v>
+        <v>287875.2774</v>
       </c>
       <c r="G38" t="n">
-        <v>-9928174.664100001</v>
+        <v>-8321043.353200003</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="C39" t="n">
-        <v>3.077</v>
+        <v>3.043</v>
       </c>
       <c r="D39" t="n">
-        <v>3.077</v>
+        <v>3.043</v>
       </c>
       <c r="E39" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="F39" t="n">
-        <v>917.6314</v>
+        <v>41917.0493</v>
       </c>
       <c r="G39" t="n">
-        <v>-9927257.0327</v>
+        <v>-8321043.353200003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="C40" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="D40" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="E40" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="F40" t="n">
-        <v>40382.3644</v>
+        <v>20213.2761</v>
       </c>
       <c r="G40" t="n">
-        <v>-9967639.3971</v>
+        <v>-8321043.353200003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="C41" t="n">
-        <v>3.042</v>
+        <v>3.043</v>
       </c>
       <c r="D41" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="E41" t="n">
-        <v>3.042</v>
+        <v>3.043</v>
       </c>
       <c r="F41" t="n">
-        <v>48258.1339</v>
+        <v>6023.8293</v>
       </c>
       <c r="G41" t="n">
-        <v>-10015897.531</v>
+        <v>-8321043.353200003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.041</v>
+        <v>3.042</v>
       </c>
       <c r="C42" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
       <c r="D42" t="n">
-        <v>3.041</v>
+        <v>3.042</v>
       </c>
       <c r="E42" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
       <c r="F42" t="n">
-        <v>3892.5809</v>
+        <v>283004.4894</v>
       </c>
       <c r="G42" t="n">
-        <v>-10019790.1119</v>
+        <v>-8604047.842600003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.039</v>
+        <v>3.042</v>
       </c>
       <c r="C43" t="n">
-        <v>3.039</v>
+        <v>3.042</v>
       </c>
       <c r="D43" t="n">
-        <v>3.039</v>
+        <v>3.042</v>
       </c>
       <c r="E43" t="n">
-        <v>3.039</v>
+        <v>3.042</v>
       </c>
       <c r="F43" t="n">
-        <v>3526.1507</v>
+        <v>419745.7228</v>
       </c>
       <c r="G43" t="n">
-        <v>-10023316.2626</v>
+        <v>-8604047.842600003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.039</v>
+        <v>3.069</v>
       </c>
       <c r="C44" t="n">
-        <v>3.038</v>
+        <v>3.069</v>
       </c>
       <c r="D44" t="n">
-        <v>3.039</v>
+        <v>3.069</v>
       </c>
       <c r="E44" t="n">
-        <v>3.038</v>
+        <v>3.069</v>
       </c>
       <c r="F44" t="n">
-        <v>19966.9855</v>
+        <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>-10043283.2481</v>
+        <v>-8603847.842600003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.037</v>
+        <v>3.042</v>
       </c>
       <c r="C45" t="n">
-        <v>3.037</v>
+        <v>3.041</v>
       </c>
       <c r="D45" t="n">
-        <v>3.037</v>
+        <v>3.042</v>
       </c>
       <c r="E45" t="n">
-        <v>3.037</v>
+        <v>3.041</v>
       </c>
       <c r="F45" t="n">
-        <v>128218.6964</v>
+        <v>88391.3803</v>
       </c>
       <c r="G45" t="n">
-        <v>-10171501.9445</v>
+        <v>-8692239.222900003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.077</v>
+        <v>3.069</v>
       </c>
       <c r="C46" t="n">
-        <v>3.077</v>
+        <v>3.069</v>
       </c>
       <c r="D46" t="n">
-        <v>3.077</v>
+        <v>3.069</v>
       </c>
       <c r="E46" t="n">
-        <v>3.077</v>
+        <v>3.069</v>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>181.818</v>
       </c>
       <c r="G46" t="n">
-        <v>-10171301.9445</v>
+        <v>-8692057.404900003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.05</v>
+        <v>3.041</v>
       </c>
       <c r="C47" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="D47" t="n">
-        <v>3.05</v>
+        <v>3.041</v>
       </c>
       <c r="E47" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="F47" t="n">
-        <v>139263.5046</v>
+        <v>1143847.5565</v>
       </c>
       <c r="G47" t="n">
-        <v>-10310565.4491</v>
+        <v>-9835904.961400002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.036</v>
+        <v>3.04</v>
       </c>
       <c r="C48" t="n">
-        <v>3.036</v>
+        <v>3.04</v>
       </c>
       <c r="D48" t="n">
-        <v>3.036</v>
+        <v>3.04</v>
       </c>
       <c r="E48" t="n">
-        <v>3.036</v>
+        <v>3.04</v>
       </c>
       <c r="F48" t="n">
-        <v>2597.3921</v>
+        <v>8500.91</v>
       </c>
       <c r="G48" t="n">
-        <v>-10313162.8412</v>
+        <v>-9835904.961400002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="C49" t="n">
-        <v>3.016</v>
+        <v>3.04</v>
       </c>
       <c r="D49" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="E49" t="n">
-        <v>3.016</v>
+        <v>3.04</v>
       </c>
       <c r="F49" t="n">
-        <v>268342.1355</v>
+        <v>60000</v>
       </c>
       <c r="G49" t="n">
-        <v>-10581504.9767</v>
+        <v>-9835904.961400002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.018</v>
+        <v>3.04</v>
       </c>
       <c r="C50" t="n">
-        <v>3.018</v>
+        <v>3.04</v>
       </c>
       <c r="D50" t="n">
-        <v>3.018</v>
+        <v>3.04</v>
       </c>
       <c r="E50" t="n">
-        <v>3.018</v>
+        <v>3.04</v>
       </c>
       <c r="F50" t="n">
-        <v>83099.69160000001</v>
+        <v>689856.347</v>
       </c>
       <c r="G50" t="n">
-        <v>-10498405.2851</v>
+        <v>-9835904.961400002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.037</v>
+        <v>3.069</v>
       </c>
       <c r="C51" t="n">
-        <v>3.037</v>
+        <v>3.069</v>
       </c>
       <c r="D51" t="n">
-        <v>3.037</v>
+        <v>3.069</v>
       </c>
       <c r="E51" t="n">
-        <v>3.037</v>
+        <v>3.069</v>
       </c>
       <c r="F51" t="n">
-        <v>61335.4256</v>
+        <v>19621.8616</v>
       </c>
       <c r="G51" t="n">
-        <v>-10437069.8595</v>
+        <v>-9816283.099800002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="C52" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="D52" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="E52" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="F52" t="n">
-        <v>1497.8826</v>
+        <v>7203.7765</v>
       </c>
       <c r="G52" t="n">
-        <v>-10437069.8595</v>
+        <v>-9809079.323300002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="C53" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="D53" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="E53" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="F53" t="n">
-        <v>15698.2211</v>
+        <v>459.6465</v>
       </c>
       <c r="G53" t="n">
-        <v>-10437069.8595</v>
+        <v>-9808619.676800001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="C54" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="D54" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="E54" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="F54" t="n">
-        <v>10027.3032</v>
+        <v>12051.5908</v>
       </c>
       <c r="G54" t="n">
-        <v>-10447097.1627</v>
+        <v>-9820671.267600002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="C55" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="D55" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="E55" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="F55" t="n">
-        <v>293294.3735</v>
+        <v>348112.5906</v>
       </c>
       <c r="G55" t="n">
-        <v>-10153802.7892</v>
+        <v>-9820671.267600002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="C56" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="D56" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="E56" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="F56" t="n">
-        <v>466494.0262</v>
+        <v>6838.691</v>
       </c>
       <c r="G56" t="n">
-        <v>-10153802.7892</v>
+        <v>-9813832.576600002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="C57" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="D57" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="E57" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="F57" t="n">
-        <v>8000.0964</v>
+        <v>2965.5378</v>
       </c>
       <c r="G57" t="n">
-        <v>-10153802.7892</v>
+        <v>-9816798.114400001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="C58" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="D58" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="E58" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="F58" t="n">
-        <v>21355.3166</v>
+        <v>2693.8946</v>
       </c>
       <c r="G58" t="n">
-        <v>-10153802.7892</v>
+        <v>-9814104.219800001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="D59" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="F59" t="n">
-        <v>1899034.5586</v>
+        <v>3294.0586</v>
       </c>
       <c r="G59" t="n">
-        <v>-12052837.3478</v>
+        <v>-9814104.219800001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="C60" t="n">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="E60" t="n">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="F60" t="n">
-        <v>1301176.2292</v>
+        <v>12899.1232</v>
       </c>
       <c r="G60" t="n">
-        <v>-13354013.577</v>
+        <v>-9814104.219800001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.03</v>
+        <v>3.081</v>
       </c>
       <c r="C61" t="n">
-        <v>3.03</v>
+        <v>3.081</v>
       </c>
       <c r="D61" t="n">
-        <v>3.03</v>
+        <v>3.081</v>
       </c>
       <c r="E61" t="n">
-        <v>3.03</v>
+        <v>3.081</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>803.3178</v>
       </c>
       <c r="G61" t="n">
-        <v>-13353813.577</v>
+        <v>-9813300.902000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.985</v>
+        <v>3.081</v>
       </c>
       <c r="C62" t="n">
-        <v>2.985</v>
+        <v>3.088</v>
       </c>
       <c r="D62" t="n">
-        <v>2.985</v>
+        <v>3.088</v>
       </c>
       <c r="E62" t="n">
-        <v>2.985</v>
+        <v>3.081</v>
       </c>
       <c r="F62" t="n">
-        <v>10961.0963</v>
+        <v>700</v>
       </c>
       <c r="G62" t="n">
-        <v>-13364774.6733</v>
+        <v>-9812600.902000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.983</v>
+        <v>3.086</v>
       </c>
       <c r="C63" t="n">
-        <v>2.982</v>
+        <v>3.086</v>
       </c>
       <c r="D63" t="n">
-        <v>2.983</v>
+        <v>3.086</v>
       </c>
       <c r="E63" t="n">
-        <v>2.982</v>
+        <v>3.086</v>
       </c>
       <c r="F63" t="n">
-        <v>18527.9561</v>
+        <v>4375.7282</v>
       </c>
       <c r="G63" t="n">
-        <v>-13383302.6294</v>
+        <v>-9816976.6302</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.02</v>
+        <v>3.086</v>
       </c>
       <c r="C64" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="D64" t="n">
-        <v>3.02</v>
+        <v>3.086</v>
       </c>
       <c r="E64" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>60000.004</v>
       </c>
       <c r="G64" t="n">
-        <v>-13383102.6294</v>
+        <v>-9876976.634200001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.981</v>
+        <v>3.06</v>
       </c>
       <c r="C65" t="n">
-        <v>2.981</v>
+        <v>3.06</v>
       </c>
       <c r="D65" t="n">
-        <v>2.981</v>
+        <v>3.06</v>
       </c>
       <c r="E65" t="n">
-        <v>2.981</v>
+        <v>3.06</v>
       </c>
       <c r="F65" t="n">
-        <v>20000</v>
+        <v>3487.7454</v>
       </c>
       <c r="G65" t="n">
-        <v>-13403102.6294</v>
+        <v>-9876976.634200001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.009</v>
+        <v>3.054</v>
       </c>
       <c r="C66" t="n">
-        <v>3.009</v>
+        <v>3.054</v>
       </c>
       <c r="D66" t="n">
-        <v>3.009</v>
+        <v>3.054</v>
       </c>
       <c r="E66" t="n">
-        <v>3.009</v>
+        <v>3.054</v>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>51198.0299</v>
       </c>
       <c r="G66" t="n">
-        <v>-13402902.6294</v>
+        <v>-9928174.664100001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.999</v>
+        <v>3.054</v>
       </c>
       <c r="C67" t="n">
-        <v>2.981</v>
+        <v>3.054</v>
       </c>
       <c r="D67" t="n">
-        <v>2.999</v>
+        <v>3.054</v>
       </c>
       <c r="E67" t="n">
-        <v>2.981</v>
+        <v>3.054</v>
       </c>
       <c r="F67" t="n">
-        <v>166569.5861</v>
+        <v>1157.0431</v>
       </c>
       <c r="G67" t="n">
-        <v>-13569472.2155</v>
+        <v>-9928174.664100001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.98</v>
+        <v>3.054</v>
       </c>
       <c r="C68" t="n">
-        <v>2.981</v>
+        <v>3.077</v>
       </c>
       <c r="D68" t="n">
-        <v>2.981</v>
+        <v>3.077</v>
       </c>
       <c r="E68" t="n">
-        <v>2.979</v>
+        <v>3.054</v>
       </c>
       <c r="F68" t="n">
-        <v>714591.1721</v>
+        <v>917.6314</v>
       </c>
       <c r="G68" t="n">
-        <v>-13569472.2155</v>
+        <v>-9927257.0327</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.981</v>
+        <v>3.054</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>3.054</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>3.054</v>
       </c>
       <c r="E69" t="n">
-        <v>2.981</v>
+        <v>3.054</v>
       </c>
       <c r="F69" t="n">
-        <v>2717.1338</v>
+        <v>40382.3644</v>
       </c>
       <c r="G69" t="n">
-        <v>-13566755.0817</v>
+        <v>-9967639.3971</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>3.054</v>
       </c>
       <c r="C70" t="n">
-        <v>2.981</v>
+        <v>3.042</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>3.054</v>
       </c>
       <c r="E70" t="n">
-        <v>2.981</v>
+        <v>3.042</v>
       </c>
       <c r="F70" t="n">
-        <v>107022.2549</v>
+        <v>48258.1339</v>
       </c>
       <c r="G70" t="n">
-        <v>-13673777.3366</v>
+        <v>-10015897.531</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.981</v>
+        <v>3.041</v>
       </c>
       <c r="C71" t="n">
-        <v>2.981</v>
+        <v>3.04</v>
       </c>
       <c r="D71" t="n">
-        <v>2.981</v>
+        <v>3.041</v>
       </c>
       <c r="E71" t="n">
-        <v>2.981</v>
+        <v>3.04</v>
       </c>
       <c r="F71" t="n">
-        <v>493456.874</v>
+        <v>3892.5809</v>
       </c>
       <c r="G71" t="n">
-        <v>-13673777.3366</v>
+        <v>-10019790.1119</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.982</v>
+        <v>3.039</v>
       </c>
       <c r="C72" t="n">
-        <v>2.981</v>
+        <v>3.039</v>
       </c>
       <c r="D72" t="n">
-        <v>2.982</v>
+        <v>3.039</v>
       </c>
       <c r="E72" t="n">
-        <v>2.981</v>
+        <v>3.039</v>
       </c>
       <c r="F72" t="n">
-        <v>69562.7982</v>
+        <v>3526.1507</v>
       </c>
       <c r="G72" t="n">
-        <v>-13673777.3366</v>
+        <v>-10023316.2626</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.984</v>
+        <v>3.039</v>
       </c>
       <c r="C73" t="n">
-        <v>2.982</v>
+        <v>3.038</v>
       </c>
       <c r="D73" t="n">
-        <v>2.984</v>
+        <v>3.039</v>
       </c>
       <c r="E73" t="n">
-        <v>2.982</v>
+        <v>3.038</v>
       </c>
       <c r="F73" t="n">
-        <v>106566.5842</v>
+        <v>19966.9855</v>
       </c>
       <c r="G73" t="n">
-        <v>-13567210.7524</v>
+        <v>-10043283.2481</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.981</v>
+        <v>3.037</v>
       </c>
       <c r="C74" t="n">
-        <v>2.978</v>
+        <v>3.037</v>
       </c>
       <c r="D74" t="n">
-        <v>2.981</v>
+        <v>3.037</v>
       </c>
       <c r="E74" t="n">
-        <v>2.978</v>
+        <v>3.037</v>
       </c>
       <c r="F74" t="n">
-        <v>249578.1354</v>
+        <v>128218.6964</v>
       </c>
       <c r="G74" t="n">
-        <v>-13816788.8878</v>
+        <v>-10171501.9445</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.979</v>
+        <v>3.077</v>
       </c>
       <c r="C75" t="n">
-        <v>2.975</v>
+        <v>3.077</v>
       </c>
       <c r="D75" t="n">
-        <v>2.979</v>
+        <v>3.077</v>
       </c>
       <c r="E75" t="n">
-        <v>2.975</v>
+        <v>3.077</v>
       </c>
       <c r="F75" t="n">
-        <v>64682.8497</v>
+        <v>200</v>
       </c>
       <c r="G75" t="n">
-        <v>-13881471.7375</v>
+        <v>-10171301.9445</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.978</v>
+        <v>3.05</v>
       </c>
       <c r="C76" t="n">
-        <v>2.978</v>
+        <v>3.037</v>
       </c>
       <c r="D76" t="n">
-        <v>2.978</v>
+        <v>3.05</v>
       </c>
       <c r="E76" t="n">
-        <v>2.978</v>
+        <v>3.037</v>
       </c>
       <c r="F76" t="n">
-        <v>24498.9155</v>
+        <v>139263.5046</v>
       </c>
       <c r="G76" t="n">
-        <v>-13856972.822</v>
+        <v>-10310565.4491</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.979</v>
+        <v>3.036</v>
       </c>
       <c r="C77" t="n">
-        <v>2.999</v>
+        <v>3.036</v>
       </c>
       <c r="D77" t="n">
-        <v>2.999</v>
+        <v>3.036</v>
       </c>
       <c r="E77" t="n">
-        <v>2.979</v>
+        <v>3.036</v>
       </c>
       <c r="F77" t="n">
-        <v>26336.2026</v>
+        <v>2597.3921</v>
       </c>
       <c r="G77" t="n">
-        <v>-13830636.6194</v>
+        <v>-10313162.8412</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.999</v>
+        <v>3.035</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>3.016</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>3.035</v>
       </c>
       <c r="E78" t="n">
-        <v>2.999</v>
+        <v>3.016</v>
       </c>
       <c r="F78" t="n">
-        <v>63618.7235</v>
+        <v>268342.1355</v>
       </c>
       <c r="G78" t="n">
-        <v>-13767017.8959</v>
+        <v>-10581504.9767</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.003</v>
+        <v>3.018</v>
       </c>
       <c r="C79" t="n">
-        <v>3.003</v>
+        <v>3.018</v>
       </c>
       <c r="D79" t="n">
-        <v>3.003</v>
+        <v>3.018</v>
       </c>
       <c r="E79" t="n">
-        <v>3.003</v>
+        <v>3.018</v>
       </c>
       <c r="F79" t="n">
-        <v>4051.4138</v>
+        <v>83099.69160000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-13762966.4821</v>
+        <v>-10498405.2851</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.003</v>
+        <v>3.037</v>
       </c>
       <c r="C80" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="D80" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="E80" t="n">
-        <v>3.003</v>
+        <v>3.037</v>
       </c>
       <c r="F80" t="n">
-        <v>32710.2418</v>
+        <v>61335.4256</v>
       </c>
       <c r="G80" t="n">
-        <v>-13730256.2403</v>
+        <v>-10437069.8595</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="C81" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="D81" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="E81" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="F81" t="n">
-        <v>19643.7133</v>
+        <v>1497.8826</v>
       </c>
       <c r="G81" t="n">
-        <v>-13749899.9536</v>
+        <v>-10437069.8595</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="C82" t="n">
-        <v>2.98</v>
+        <v>3.037</v>
       </c>
       <c r="D82" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="E82" t="n">
-        <v>2.98</v>
+        <v>3.037</v>
       </c>
       <c r="F82" t="n">
-        <v>194087.821</v>
+        <v>15698.2211</v>
       </c>
       <c r="G82" t="n">
-        <v>-13943987.7746</v>
+        <v>-10437069.8595</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.98</v>
+        <v>3.037</v>
       </c>
       <c r="C83" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="D83" t="n">
-        <v>2.98</v>
+        <v>3.037</v>
       </c>
       <c r="E83" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="F83" t="n">
-        <v>59996.7426</v>
+        <v>10027.3032</v>
       </c>
       <c r="G83" t="n">
-        <v>-13943987.7746</v>
+        <v>-10447097.1627</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="C84" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="D84" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="E84" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="F84" t="n">
-        <v>272981.7108</v>
+        <v>293294.3735</v>
       </c>
       <c r="G84" t="n">
-        <v>-13671006.0638</v>
+        <v>-10153802.7892</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="C85" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="D85" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="E85" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="F85" t="n">
-        <v>67365.68700000001</v>
+        <v>466494.0262</v>
       </c>
       <c r="G85" t="n">
-        <v>-13671006.0638</v>
+        <v>-10153802.7892</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="C86" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="D86" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="E86" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="F86" t="n">
-        <v>3012.1808</v>
+        <v>8000.0964</v>
       </c>
       <c r="G86" t="n">
-        <v>-13671006.0638</v>
+        <v>-10153802.7892</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.003</v>
+        <v>3.037</v>
       </c>
       <c r="C87" t="n">
-        <v>3.003</v>
+        <v>3.037</v>
       </c>
       <c r="D87" t="n">
-        <v>3.003</v>
+        <v>3.037</v>
       </c>
       <c r="E87" t="n">
-        <v>3.003</v>
+        <v>3.037</v>
       </c>
       <c r="F87" t="n">
-        <v>6125.8367</v>
+        <v>21355.3166</v>
       </c>
       <c r="G87" t="n">
-        <v>-13677131.9005</v>
+        <v>-10153802.7892</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.002</v>
+        <v>3.037</v>
       </c>
       <c r="C88" t="n">
-        <v>3.005</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>3.005</v>
+        <v>3.037</v>
       </c>
       <c r="E88" t="n">
-        <v>3.002</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>74234.6906</v>
+        <v>1899034.5586</v>
       </c>
       <c r="G88" t="n">
-        <v>-13602897.2099</v>
+        <v>-12052837.3478</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.005</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>2.913</v>
+        <v>2.98</v>
       </c>
       <c r="D89" t="n">
-        <v>3.005</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>2.913</v>
+        <v>2.98</v>
       </c>
       <c r="F89" t="n">
-        <v>1200000</v>
+        <v>1301176.2292</v>
       </c>
       <c r="G89" t="n">
-        <v>-14802897.2099</v>
+        <v>-13354013.577</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.93</v>
+        <v>3.03</v>
       </c>
       <c r="C90" t="n">
-        <v>2.923</v>
+        <v>3.03</v>
       </c>
       <c r="D90" t="n">
-        <v>2.93</v>
+        <v>3.03</v>
       </c>
       <c r="E90" t="n">
-        <v>2.923</v>
+        <v>3.03</v>
       </c>
       <c r="F90" t="n">
-        <v>284417.9487</v>
+        <v>200</v>
       </c>
       <c r="G90" t="n">
-        <v>-14518479.2612</v>
+        <v>-13353813.577</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.923</v>
+        <v>2.985</v>
       </c>
       <c r="C91" t="n">
-        <v>2.923</v>
+        <v>2.985</v>
       </c>
       <c r="D91" t="n">
-        <v>2.923</v>
+        <v>2.985</v>
       </c>
       <c r="E91" t="n">
-        <v>2.923</v>
+        <v>2.985</v>
       </c>
       <c r="F91" t="n">
-        <v>147218.2892</v>
+        <v>10961.0963</v>
       </c>
       <c r="G91" t="n">
-        <v>-14518479.2612</v>
+        <v>-13364774.6733</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.95</v>
+        <v>2.983</v>
       </c>
       <c r="C92" t="n">
-        <v>2.91</v>
+        <v>2.982</v>
       </c>
       <c r="D92" t="n">
-        <v>2.95</v>
+        <v>2.983</v>
       </c>
       <c r="E92" t="n">
-        <v>2.91</v>
+        <v>2.982</v>
       </c>
       <c r="F92" t="n">
-        <v>4724103.8388</v>
+        <v>18527.9561</v>
       </c>
       <c r="G92" t="n">
-        <v>-19242583.1</v>
+        <v>-13383302.6294</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="C93" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="D93" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="E93" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="F93" t="n">
-        <v>151662.2084</v>
+        <v>200</v>
       </c>
       <c r="G93" t="n">
-        <v>-19090920.8916</v>
+        <v>-13383102.6294</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="C94" t="n">
-        <v>2.911</v>
+        <v>2.981</v>
       </c>
       <c r="D94" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="E94" t="n">
-        <v>2.911</v>
+        <v>2.981</v>
       </c>
       <c r="F94" t="n">
-        <v>352</v>
+        <v>20000</v>
       </c>
       <c r="G94" t="n">
-        <v>-19091272.8916</v>
+        <v>-13403102.6294</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.93</v>
+        <v>3.009</v>
       </c>
       <c r="C95" t="n">
-        <v>2.94</v>
+        <v>3.009</v>
       </c>
       <c r="D95" t="n">
-        <v>2.94</v>
+        <v>3.009</v>
       </c>
       <c r="E95" t="n">
-        <v>2.93</v>
+        <v>3.009</v>
       </c>
       <c r="F95" t="n">
-        <v>12591.00150884354</v>
+        <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>-19078681.89009116</v>
+        <v>-13402902.6294</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.92</v>
+        <v>2.999</v>
       </c>
       <c r="C96" t="n">
-        <v>2.92</v>
+        <v>2.981</v>
       </c>
       <c r="D96" t="n">
-        <v>2.92</v>
+        <v>2.999</v>
       </c>
       <c r="E96" t="n">
-        <v>2.92</v>
+        <v>2.981</v>
       </c>
       <c r="F96" t="n">
-        <v>37471.7631</v>
+        <v>166569.5861</v>
       </c>
       <c r="G96" t="n">
-        <v>-19116153.65319116</v>
+        <v>-13569472.2155</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="C97" t="n">
-        <v>2.92</v>
+        <v>2.981</v>
       </c>
       <c r="D97" t="n">
-        <v>2.92</v>
+        <v>2.981</v>
       </c>
       <c r="E97" t="n">
-        <v>2.92</v>
+        <v>2.979</v>
       </c>
       <c r="F97" t="n">
-        <v>2000</v>
+        <v>714591.1721</v>
       </c>
       <c r="G97" t="n">
-        <v>-19116153.65319116</v>
+        <v>-13569472.2155</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="C98" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>2717.1338</v>
       </c>
       <c r="G98" t="n">
-        <v>-19114153.65319116</v>
+        <v>-13566755.0817</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="D99" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="F99" t="n">
-        <v>5000</v>
+        <v>107022.2549</v>
       </c>
       <c r="G99" t="n">
-        <v>-19114153.65319116</v>
+        <v>-13673777.3366</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="C100" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="D100" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="E100" t="n">
-        <v>2.93</v>
+        <v>2.981</v>
       </c>
       <c r="F100" t="n">
-        <v>18444</v>
+        <v>493456.874</v>
       </c>
       <c r="G100" t="n">
-        <v>-19114153.65319116</v>
+        <v>-13673777.3366</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.93</v>
+        <v>2.982</v>
       </c>
       <c r="C101" t="n">
-        <v>2.929</v>
+        <v>2.981</v>
       </c>
       <c r="D101" t="n">
-        <v>2.93</v>
+        <v>2.982</v>
       </c>
       <c r="E101" t="n">
-        <v>2.929</v>
+        <v>2.981</v>
       </c>
       <c r="F101" t="n">
-        <v>385511.8734</v>
+        <v>69562.7982</v>
       </c>
       <c r="G101" t="n">
-        <v>-19499665.52659116</v>
+        <v>-13673777.3366</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.94</v>
+        <v>2.984</v>
       </c>
       <c r="C102" t="n">
-        <v>2.94</v>
+        <v>2.982</v>
       </c>
       <c r="D102" t="n">
-        <v>2.94</v>
+        <v>2.984</v>
       </c>
       <c r="E102" t="n">
-        <v>2.94</v>
+        <v>2.982</v>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>106566.5842</v>
       </c>
       <c r="G102" t="n">
-        <v>-19494665.52659116</v>
+        <v>-13567210.7524</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.952</v>
+        <v>2.981</v>
       </c>
       <c r="C103" t="n">
-        <v>2.952</v>
+        <v>2.978</v>
       </c>
       <c r="D103" t="n">
-        <v>2.952</v>
+        <v>2.981</v>
       </c>
       <c r="E103" t="n">
-        <v>2.952</v>
+        <v>2.978</v>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>249578.1354</v>
       </c>
       <c r="G103" t="n">
-        <v>-19494465.52659116</v>
+        <v>-13816788.8878</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.952</v>
+        <v>2.979</v>
       </c>
       <c r="C104" t="n">
-        <v>2.952</v>
+        <v>2.975</v>
       </c>
       <c r="D104" t="n">
-        <v>2.952</v>
+        <v>2.979</v>
       </c>
       <c r="E104" t="n">
-        <v>2.952</v>
+        <v>2.975</v>
       </c>
       <c r="F104" t="n">
-        <v>8800</v>
+        <v>64682.8497</v>
       </c>
       <c r="G104" t="n">
-        <v>-19494465.52659116</v>
+        <v>-13881471.7375</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.947</v>
+        <v>2.978</v>
       </c>
       <c r="C105" t="n">
-        <v>2.948</v>
+        <v>2.978</v>
       </c>
       <c r="D105" t="n">
-        <v>2.948</v>
+        <v>2.978</v>
       </c>
       <c r="E105" t="n">
-        <v>2.947</v>
+        <v>2.978</v>
       </c>
       <c r="F105" t="n">
-        <v>25382.733</v>
+        <v>24498.9155</v>
       </c>
       <c r="G105" t="n">
-        <v>-19519848.25959115</v>
+        <v>-13856972.822</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,35 +4182,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.948</v>
+        <v>2.979</v>
       </c>
       <c r="C106" t="n">
-        <v>2.948</v>
+        <v>2.999</v>
       </c>
       <c r="D106" t="n">
-        <v>2.948</v>
+        <v>2.999</v>
       </c>
       <c r="E106" t="n">
-        <v>2.948</v>
+        <v>2.979</v>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>26336.2026</v>
       </c>
       <c r="G106" t="n">
-        <v>-19519848.25959115</v>
+        <v>-13830636.6194</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="K106" t="n">
-        <v>2.948</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4222,40 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.952</v>
+        <v>2.999</v>
       </c>
       <c r="C107" t="n">
-        <v>2.952</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>2.952</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>2.952</v>
+        <v>2.999</v>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>63618.7235</v>
       </c>
       <c r="G107" t="n">
-        <v>-19514848.25959115</v>
+        <v>-13767017.8959</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="K107" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4266,40 +4254,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.951</v>
+        <v>3.003</v>
       </c>
       <c r="C108" t="n">
-        <v>2.951</v>
+        <v>3.003</v>
       </c>
       <c r="D108" t="n">
-        <v>2.951</v>
+        <v>3.003</v>
       </c>
       <c r="E108" t="n">
-        <v>2.951</v>
+        <v>3.003</v>
       </c>
       <c r="F108" t="n">
-        <v>5000</v>
+        <v>4051.4138</v>
       </c>
       <c r="G108" t="n">
-        <v>-19519848.25959115</v>
+        <v>-13762966.4821</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="K108" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4310,35 +4290,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.952</v>
+        <v>3.003</v>
       </c>
       <c r="C109" t="n">
-        <v>2.972</v>
+        <v>3.005</v>
       </c>
       <c r="D109" t="n">
-        <v>2.972</v>
+        <v>3.005</v>
       </c>
       <c r="E109" t="n">
-        <v>2.952</v>
+        <v>3.003</v>
       </c>
       <c r="F109" t="n">
-        <v>49770.59187005384</v>
+        <v>32710.2418</v>
       </c>
       <c r="G109" t="n">
-        <v>-19470077.6677211</v>
+        <v>-13730256.2403</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>2.951</v>
-      </c>
-      <c r="K109" t="n">
-        <v>2.951</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
@@ -4350,42 +4326,1130 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19643.7133</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-13749899.9536</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F111" t="n">
+        <v>194087.821</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-13943987.7746</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F112" t="n">
+        <v>59996.7426</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-13943987.7746</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F113" t="n">
+        <v>272981.7108</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-13671006.0638</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="F114" t="n">
+        <v>67365.68700000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-13671006.0638</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3012.1808</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-13671006.0638</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6125.8367</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-13677131.9005</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="F117" t="n">
+        <v>74234.6906</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-13602897.2099</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-14802897.2099</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="F119" t="n">
+        <v>284417.9487</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-14518479.2612</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="F120" t="n">
+        <v>147218.2892</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-14518479.2612</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4724103.8388</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-19242583.1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F122" t="n">
+        <v>151662.2084</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-19090920.8916</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="F123" t="n">
+        <v>352</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-19091272.8916</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12591.00150884354</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-19078681.89009116</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F125" t="n">
+        <v>37471.7631</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-19116153.65319116</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-19116153.65319116</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-19114153.65319116</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-19114153.65319116</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18444</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-19114153.65319116</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="F130" t="n">
+        <v>385511.8734</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-19499665.52659116</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-19494665.52659116</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="F132" t="n">
+        <v>200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-19494465.52659116</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-19494465.52659116</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="F134" t="n">
+        <v>25382.733</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-19519848.25959115</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-19519848.25959115</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-19514848.25959115</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.951</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.951</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.951</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.951</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-19519848.25959115</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.972</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.972</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="F138" t="n">
+        <v>49770.59187005384</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-19470077.6677211</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
         <v>2.957</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C139" t="n">
         <v>2.972</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D139" t="n">
         <v>2.972</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E139" t="n">
         <v>2.957</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F139" t="n">
         <v>558926.0302</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G139" t="n">
         <v>-19470077.6677211</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2.951</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest MIX.xlsx
+++ b/BackTest/2020-01-15 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-7221316.879700001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-7221686.879700001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-10437069.8595</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-12052837.3478</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,19 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>2.93</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.93</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,24 +4679,23 @@
         <v>-19499665.52659116</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="J130" t="n">
         <v>2.93</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5106,24 +4720,21 @@
         <v>-19494665.52659116</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>2.929</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5148,24 +4759,23 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="J132" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5190,24 +4800,21 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5234,20 +4841,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5274,20 +4880,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5314,20 +4919,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5352,24 +4956,23 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>2.952</v>
       </c>
       <c r="J137" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5394,22 +4997,23 @@
         <v>-19470077.6677211</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+        <v>2.951</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5434,24 +5038,25 @@
         <v>-19470077.6677211</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+        <v>2.972</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest MIX.xlsx
+++ b/BackTest/2020-01-15 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6684532.7506</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7221316.879700001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-7221686.879700001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-7347115.725400002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-7346915.725400002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-7352000.747300002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-7656290.348400002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-8159514.637200003</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8001012.424900003</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-8001012.424900003</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8000830.624900003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8012830.624900003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8012649.524900003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-8012649.524900003</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-8013039.800800003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-8034574.822900003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-8033368.075800003</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-8033368.075800003</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-8033168.075800003</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8604047.842600003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8604047.842600003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8603847.842600003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8692239.222900003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8692057.404900003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9835904.961400002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9835904.961400002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9809079.323300002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9808619.676800001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9813832.576600002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9816798.114400001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-9812600.902000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-9816976.6302</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-9928174.664100001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-9928174.664100001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-9927257.0327</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-9967639.3971</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-10015897.531</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-10019790.1119</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-10023316.2626</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-10043283.2481</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-10171501.9445</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-10171301.9445</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-10310565.4491</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-10313162.8412</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-10581504.9767</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-10498405.2851</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-10437069.8595</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-10437069.8595</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-10437069.8595</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-10447097.1627</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-10153802.7892</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-10153802.7892</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-10153802.7892</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-10153802.7892</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-12052837.3478</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-13354013.577</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-13364774.6733</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>2.93</v>
@@ -4679,7 +4679,7 @@
         <v>-19499665.52659116</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>2.93</v>
@@ -4720,9 +4720,11 @@
         <v>-19494665.52659116</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.929</v>
+      </c>
       <c r="J131" t="n">
         <v>2.93</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>2.94</v>
@@ -4800,9 +4802,11 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.952</v>
+      </c>
       <c r="J133" t="n">
         <v>2.93</v>
       </c>
@@ -4839,9 +4843,11 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2.952</v>
+      </c>
       <c r="J134" t="n">
         <v>2.93</v>
       </c>
@@ -4878,9 +4884,11 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2.948</v>
+      </c>
       <c r="J135" t="n">
         <v>2.93</v>
       </c>
@@ -4917,9 +4925,11 @@
         <v>-19514848.25959115</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.948</v>
+      </c>
       <c r="J136" t="n">
         <v>2.93</v>
       </c>
@@ -4956,7 +4966,7 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>2.952</v>
@@ -4997,7 +5007,7 @@
         <v>-19470077.6677211</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>2.951</v>
@@ -5038,11 +5048,9 @@
         <v>-19470077.6677211</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2.972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>2.93</v>
       </c>
@@ -5057,6 +5065,6 @@
       <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest MIX.xlsx
+++ b/BackTest/2020-01-15 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>-7221686.879700001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-7347115.725400002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-7346915.725400002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-7352000.747300002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-7656290.348400002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-8159514.637200003</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8001012.424900003</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-8001012.424900003</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8000830.624900003</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-8013039.800800003</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-8034574.822900003</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-8033368.075800003</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-8033368.075800003</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-8033168.075800003</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8604047.842600003</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8604047.842600003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8692239.222900003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8692057.404900003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9835904.961400002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9835904.961400002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9809079.323300002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9808619.676800001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9813832.576600002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9816798.114400001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-9812600.902000001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-9816976.6302</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-9928174.664100001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-9928174.664100001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-9927257.0327</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-9967639.3971</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-10015897.531</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-10019790.1119</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-10023316.2626</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-10043283.2481</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-10171501.9445</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-10171301.9445</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-10310565.4491</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-10313162.8412</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-10581504.9767</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-10498405.2851</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-10437069.8595</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-10437069.8595</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-10437069.8595</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-10447097.1627</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-10153802.7892</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-10153802.7892</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-10153802.7892</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-10153802.7892</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-12052837.3478</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-13354013.577</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-13364774.6733</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4543,10 +4543,14 @@
         <v>-19116153.65319116</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.92</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4579,8 +4583,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4622,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,14 +4658,10 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
@@ -4679,19 +4691,11 @@
         <v>-19499665.52659116</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4720,19 +4724,11 @@
         <v>-19494665.52659116</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2.929</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4761,19 +4757,11 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4802,19 +4790,11 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4843,19 +4823,11 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4884,19 +4856,11 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4925,19 +4889,11 @@
         <v>-19514848.25959115</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4966,19 +4922,11 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5007,19 +4955,11 @@
         <v>-19470077.6677211</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2.951</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5051,20 +4991,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest MIX.xlsx
+++ b/BackTest/2020-01-15 BackTest MIX.xlsx
@@ -451,7 +451,7 @@
         <v>-6684532.7506</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6684532.7506</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-6583344.598</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-6574541.2881</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-6664823.282000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7222698.023000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7221316.879700001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-7221686.879700001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-7352000.747300002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-7342986.577300002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-7662986.577300002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-7793282.406700002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-7656290.348400002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-8159514.637200003</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8001012.424900003</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8000830.624900003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-8013039.800800003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-8034574.822900003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-8033168.075800003</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8604047.842600003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8603847.842600003</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8692239.222900003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9808619.676800001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9813832.576600002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9816798.114400001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-9813300.902000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-9812600.902000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-9816976.6302</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-9928174.664100001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-9928174.664100001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-9927257.0327</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-9967639.3971</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-10015897.531</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-10310565.4491</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-10313162.8412</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4543,14 +4543,10 @@
         <v>-19116153.65319116</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4580,17 +4576,15 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.92</v>
+      </c>
       <c r="J127" t="n">
         <v>2.92</v>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4619,9 +4613,11 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2.93</v>
+      </c>
       <c r="J128" t="n">
         <v>2.92</v>
       </c>
@@ -4658,11 +4654,19 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4695,19 @@
         <v>-19499665.52659116</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4736,19 @@
         <v>-19494665.52659116</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +4777,19 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4818,19 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +4862,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4898,19 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4892,8 +4942,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +4978,19 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4958,8 +5022,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +5061,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-15 BackTest MIX.xlsx
+++ b/BackTest/2020-01-15 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>679.4688</v>
       </c>
       <c r="G2" t="n">
-        <v>-6684532.7506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>95020.2944</v>
       </c>
       <c r="G3" t="n">
-        <v>-6684532.7506</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>101188.1526</v>
       </c>
       <c r="G4" t="n">
-        <v>-6583344.598</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>8803.3099</v>
       </c>
       <c r="G5" t="n">
-        <v>-6574541.2881</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>90281.9939</v>
       </c>
       <c r="G6" t="n">
-        <v>-6664823.282000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>189861.5101</v>
       </c>
       <c r="G7" t="n">
-        <v>-6474961.771900001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>747736.2511</v>
       </c>
       <c r="G8" t="n">
-        <v>-7222698.023000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1381.1433</v>
       </c>
       <c r="G9" t="n">
-        <v>-7221316.879700001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>370</v>
       </c>
       <c r="G10" t="n">
-        <v>-7221686.879700001</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>129428.8457</v>
       </c>
       <c r="G11" t="n">
-        <v>-7351115.725400002</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>50351.9419</v>
       </c>
       <c r="G12" t="n">
-        <v>-7351115.725400002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>330879.6447</v>
       </c>
       <c r="G13" t="n">
-        <v>-7351115.725400002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>370754.3737</v>
       </c>
       <c r="G14" t="n">
-        <v>-7351115.725400002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>4000</v>
       </c>
       <c r="G15" t="n">
-        <v>-7347115.725400002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>200</v>
       </c>
       <c r="G16" t="n">
-        <v>-7346915.725400002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>5085.0219</v>
       </c>
       <c r="G17" t="n">
-        <v>-7352000.747300002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>9014.17</v>
       </c>
       <c r="G18" t="n">
-        <v>-7342986.577300002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>320000</v>
       </c>
       <c r="G19" t="n">
-        <v>-7662986.577300002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>130295.8294</v>
       </c>
       <c r="G20" t="n">
-        <v>-7793282.406700002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>136992.0583</v>
       </c>
       <c r="G21" t="n">
-        <v>-7656290.348400002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>227941.7723</v>
       </c>
       <c r="G22" t="n">
-        <v>-7884232.120700003</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>50000</v>
       </c>
       <c r="G23" t="n">
-        <v>-7884232.120700003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>436831.2274</v>
       </c>
       <c r="G24" t="n">
-        <v>-7884232.120700003</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>13000</v>
       </c>
       <c r="G25" t="n">
-        <v>-7884232.120700003</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>275282.5165</v>
       </c>
       <c r="G26" t="n">
-        <v>-8159514.637200003</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>158502.2123</v>
       </c>
       <c r="G27" t="n">
-        <v>-8001012.424900003</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>200000</v>
       </c>
       <c r="G28" t="n">
-        <v>-8001012.424900003</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>181.8</v>
       </c>
       <c r="G29" t="n">
-        <v>-8000830.624900003</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>12000</v>
       </c>
       <c r="G30" t="n">
-        <v>-8012830.624900003</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>181.1</v>
       </c>
       <c r="G31" t="n">
-        <v>-8012649.524900003</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>199.6777</v>
       </c>
       <c r="G32" t="n">
-        <v>-8012649.524900003</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>390.2759</v>
       </c>
       <c r="G33" t="n">
-        <v>-8013039.800800003</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>21535.0221</v>
       </c>
       <c r="G34" t="n">
-        <v>-8034574.822900003</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1206.7471</v>
       </c>
       <c r="G35" t="n">
-        <v>-8033368.075800003</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>8790.375400000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-8033368.075800003</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>200</v>
       </c>
       <c r="G37" t="n">
-        <v>-8033168.075800003</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>287875.2774</v>
       </c>
       <c r="G38" t="n">
-        <v>-8321043.353200003</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>41917.0493</v>
       </c>
       <c r="G39" t="n">
-        <v>-8321043.353200003</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>20213.2761</v>
       </c>
       <c r="G40" t="n">
-        <v>-8321043.353200003</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>6023.8293</v>
       </c>
       <c r="G41" t="n">
-        <v>-8321043.353200003</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>283004.4894</v>
       </c>
       <c r="G42" t="n">
-        <v>-8604047.842600003</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>419745.7228</v>
       </c>
       <c r="G43" t="n">
-        <v>-8604047.842600003</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>-8603847.842600003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>88391.3803</v>
       </c>
       <c r="G45" t="n">
-        <v>-8692239.222900003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>181.818</v>
       </c>
       <c r="G46" t="n">
-        <v>-8692057.404900003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1143847.5565</v>
       </c>
       <c r="G47" t="n">
-        <v>-9835904.961400002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>8500.91</v>
       </c>
       <c r="G48" t="n">
-        <v>-9835904.961400002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>60000</v>
       </c>
       <c r="G49" t="n">
-        <v>-9835904.961400002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>689856.347</v>
       </c>
       <c r="G50" t="n">
-        <v>-9835904.961400002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>19621.8616</v>
       </c>
       <c r="G51" t="n">
-        <v>-9816283.099800002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>7203.7765</v>
       </c>
       <c r="G52" t="n">
-        <v>-9809079.323300002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>459.6465</v>
       </c>
       <c r="G53" t="n">
-        <v>-9808619.676800001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>12051.5908</v>
       </c>
       <c r="G54" t="n">
-        <v>-9820671.267600002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>348112.5906</v>
       </c>
       <c r="G55" t="n">
-        <v>-9820671.267600002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>6838.691</v>
       </c>
       <c r="G56" t="n">
-        <v>-9813832.576600002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2965.5378</v>
       </c>
       <c r="G57" t="n">
-        <v>-9816798.114400001</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2693.8946</v>
       </c>
       <c r="G58" t="n">
-        <v>-9814104.219800001</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>3294.0586</v>
       </c>
       <c r="G59" t="n">
-        <v>-9814104.219800001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>12899.1232</v>
       </c>
       <c r="G60" t="n">
-        <v>-9814104.219800001</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>803.3178</v>
       </c>
       <c r="G61" t="n">
-        <v>-9813300.902000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>700</v>
       </c>
       <c r="G62" t="n">
-        <v>-9812600.902000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>4375.7282</v>
       </c>
       <c r="G63" t="n">
-        <v>-9816976.6302</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>60000.004</v>
       </c>
       <c r="G64" t="n">
-        <v>-9876976.634200001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>3487.7454</v>
       </c>
       <c r="G65" t="n">
-        <v>-9876976.634200001</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>51198.0299</v>
       </c>
       <c r="G66" t="n">
-        <v>-9928174.664100001</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1157.0431</v>
       </c>
       <c r="G67" t="n">
-        <v>-9928174.664100001</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>917.6314</v>
       </c>
       <c r="G68" t="n">
-        <v>-9927257.0327</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>40382.3644</v>
       </c>
       <c r="G69" t="n">
-        <v>-9967639.3971</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>48258.1339</v>
       </c>
       <c r="G70" t="n">
-        <v>-10015897.531</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>3892.5809</v>
       </c>
       <c r="G71" t="n">
-        <v>-10019790.1119</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3526.1507</v>
       </c>
       <c r="G72" t="n">
-        <v>-10023316.2626</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>19966.9855</v>
       </c>
       <c r="G73" t="n">
-        <v>-10043283.2481</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>128218.6964</v>
       </c>
       <c r="G74" t="n">
-        <v>-10171501.9445</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>200</v>
       </c>
       <c r="G75" t="n">
-        <v>-10171301.9445</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>139263.5046</v>
       </c>
       <c r="G76" t="n">
-        <v>-10310565.4491</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2597.3921</v>
       </c>
       <c r="G77" t="n">
-        <v>-10313162.8412</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>268342.1355</v>
       </c>
       <c r="G78" t="n">
-        <v>-10581504.9767</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>83099.69160000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-10498405.2851</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>61335.4256</v>
       </c>
       <c r="G80" t="n">
-        <v>-10437069.8595</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1497.8826</v>
       </c>
       <c r="G81" t="n">
-        <v>-10437069.8595</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>15698.2211</v>
       </c>
       <c r="G82" t="n">
-        <v>-10437069.8595</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>10027.3032</v>
       </c>
       <c r="G83" t="n">
-        <v>-10447097.1627</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>293294.3735</v>
       </c>
       <c r="G84" t="n">
-        <v>-10153802.7892</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>466494.0262</v>
       </c>
       <c r="G85" t="n">
-        <v>-10153802.7892</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>8000.0964</v>
       </c>
       <c r="G86" t="n">
-        <v>-10153802.7892</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>21355.3166</v>
       </c>
       <c r="G87" t="n">
-        <v>-10153802.7892</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1899034.5586</v>
       </c>
       <c r="G88" t="n">
-        <v>-12052837.3478</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1301176.2292</v>
       </c>
       <c r="G89" t="n">
-        <v>-13354013.577</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>200</v>
       </c>
       <c r="G90" t="n">
-        <v>-13353813.577</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>10961.0963</v>
       </c>
       <c r="G91" t="n">
-        <v>-13364774.6733</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>18527.9561</v>
       </c>
       <c r="G92" t="n">
-        <v>-13383302.6294</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>200</v>
       </c>
       <c r="G93" t="n">
-        <v>-13383102.6294</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>20000</v>
       </c>
       <c r="G94" t="n">
-        <v>-13403102.6294</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>-13402902.6294</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>166569.5861</v>
       </c>
       <c r="G96" t="n">
-        <v>-13569472.2155</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>714591.1721</v>
       </c>
       <c r="G97" t="n">
-        <v>-13569472.2155</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>2717.1338</v>
       </c>
       <c r="G98" t="n">
-        <v>-13566755.0817</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>107022.2549</v>
       </c>
       <c r="G99" t="n">
-        <v>-13673777.3366</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>493456.874</v>
       </c>
       <c r="G100" t="n">
-        <v>-13673777.3366</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>69562.7982</v>
       </c>
       <c r="G101" t="n">
-        <v>-13673777.3366</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>106566.5842</v>
       </c>
       <c r="G102" t="n">
-        <v>-13567210.7524</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>249578.1354</v>
       </c>
       <c r="G103" t="n">
-        <v>-13816788.8878</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>64682.8497</v>
       </c>
       <c r="G104" t="n">
-        <v>-13881471.7375</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>24498.9155</v>
       </c>
       <c r="G105" t="n">
-        <v>-13856972.822</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>26336.2026</v>
       </c>
       <c r="G106" t="n">
-        <v>-13830636.6194</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>63618.7235</v>
       </c>
       <c r="G107" t="n">
-        <v>-13767017.8959</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>4051.4138</v>
       </c>
       <c r="G108" t="n">
-        <v>-13762966.4821</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>32710.2418</v>
       </c>
       <c r="G109" t="n">
-        <v>-13730256.2403</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>19643.7133</v>
       </c>
       <c r="G110" t="n">
-        <v>-13749899.9536</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>194087.821</v>
       </c>
       <c r="G111" t="n">
-        <v>-13943987.7746</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>59996.7426</v>
       </c>
       <c r="G112" t="n">
-        <v>-13943987.7746</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>272981.7108</v>
       </c>
       <c r="G113" t="n">
-        <v>-13671006.0638</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>67365.68700000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-13671006.0638</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>3012.1808</v>
       </c>
       <c r="G115" t="n">
-        <v>-13671006.0638</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>6125.8367</v>
       </c>
       <c r="G116" t="n">
-        <v>-13677131.9005</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>74234.6906</v>
       </c>
       <c r="G117" t="n">
-        <v>-13602897.2099</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>1200000</v>
       </c>
       <c r="G118" t="n">
-        <v>-14802897.2099</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>284417.9487</v>
       </c>
       <c r="G119" t="n">
-        <v>-14518479.2612</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>147218.2892</v>
       </c>
       <c r="G120" t="n">
-        <v>-14518479.2612</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>4724103.8388</v>
       </c>
       <c r="G121" t="n">
-        <v>-19242583.1</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>151662.2084</v>
       </c>
       <c r="G122" t="n">
-        <v>-19090920.8916</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>352</v>
       </c>
       <c r="G123" t="n">
-        <v>-19091272.8916</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>12591.00150884354</v>
       </c>
       <c r="G124" t="n">
-        <v>-19078681.89009116</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>37471.7631</v>
       </c>
       <c r="G125" t="n">
-        <v>-19116153.65319116</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2000</v>
       </c>
       <c r="G126" t="n">
-        <v>-19116153.65319116</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,22 +4193,15 @@
         <v>2000</v>
       </c>
       <c r="G127" t="n">
-        <v>-19114153.65319116</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4610,26 +4223,15 @@
         <v>5000</v>
       </c>
       <c r="G128" t="n">
-        <v>-19114153.65319116</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4651,26 +4253,19 @@
         <v>18444</v>
       </c>
       <c r="G129" t="n">
-        <v>-19114153.65319116</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="I129" t="n">
         <v>2.93</v>
       </c>
-      <c r="J129" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4692,26 +4287,23 @@
         <v>385511.8734</v>
       </c>
       <c r="G130" t="n">
-        <v>-19499665.52659116</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="I130" t="n">
         <v>2.93</v>
       </c>
-      <c r="J130" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4733,26 +4325,23 @@
         <v>5000</v>
       </c>
       <c r="G131" t="n">
-        <v>-19494665.52659116</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2.929</v>
       </c>
       <c r="I131" t="n">
-        <v>2.929</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K131" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4774,26 +4363,21 @@
         <v>200</v>
       </c>
       <c r="G132" t="n">
-        <v>-19494465.52659116</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K132" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4815,26 +4399,21 @@
         <v>8800</v>
       </c>
       <c r="G133" t="n">
-        <v>-19494465.52659116</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K133" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4856,24 +4435,21 @@
         <v>25382.733</v>
       </c>
       <c r="G134" t="n">
-        <v>-19519848.25959115</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4895,26 +4471,21 @@
         <v>5000</v>
       </c>
       <c r="G135" t="n">
-        <v>-19519848.25959115</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K135" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4936,24 +4507,21 @@
         <v>5000</v>
       </c>
       <c r="G136" t="n">
-        <v>-19514848.25959115</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4975,26 +4543,21 @@
         <v>5000</v>
       </c>
       <c r="G137" t="n">
-        <v>-19519848.25959115</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K137" t="inlineStr">
+        <v>2.93</v>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5016,24 +4579,21 @@
         <v>49770.59187005384</v>
       </c>
       <c r="G138" t="n">
-        <v>-19470077.6677211</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5055,24 +4615,21 @@
         <v>558926.0302</v>
       </c>
       <c r="G139" t="n">
-        <v>-19470077.6677211</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
